--- a/C++ v9/expReg(1) last pattern positions.xlsx
+++ b/C++ v9/expReg(1) last pattern positions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\_Edu\2019\Semester 1\Random\CollatzThing\CollatzExperiments\C++ v9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\_Edu\2019\Semester 1\Random\CollatzThing\CollatzExperiments\C++ v9-extended\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>ok to miss</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>ok to miss as we already check for powers of 2 and overlay a superset of on bits</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,18 +357,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -362,8 +377,11 @@
         <f>SUBSTITUTE(SUBSTITUTE(_xlfn.BASE(A1,2,10), "0", "-"), "1", "#")</f>
         <v>---------#</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -371,8 +389,11 @@
         <f t="shared" ref="B2:B54" si="0">SUBSTITUTE(SUBSTITUTE(_xlfn.BASE(A2,2,10), "0", "-"), "1", "#")</f>
         <v>--------#-</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -380,8 +401,11 @@
         <f t="shared" si="0"/>
         <v>-------#--</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -390,7 +414,7 @@
         <v>-------#-#</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -399,7 +423,7 @@
         <v>-------###</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -407,8 +431,11 @@
         <f t="shared" si="0"/>
         <v>------#---</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -417,7 +444,7 @@
         <v>------#-#-</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -426,7 +453,7 @@
         <v>------#-##</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -435,7 +462,7 @@
         <v>------###-</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -443,8 +470,11 @@
         <f t="shared" si="0"/>
         <v>-----#----</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -453,7 +483,7 @@
         <v>-----#--##</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -462,7 +492,7 @@
         <v>-----#-#--</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
@@ -471,7 +501,7 @@
         <v>-----#-##-</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28</v>
       </c>
@@ -480,7 +510,7 @@
         <v>-----###--</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
@@ -488,8 +518,11 @@
         <f t="shared" si="0"/>
         <v>----#-----</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>35</v>
       </c>
